--- a/excel_template/Apple.xlsx
+++ b/excel_template/Apple.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tonyluu/Documents/Complete Projects/python/python 11 - excel to pdf/excel_template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98352C84-9948-524D-80E5-1E96350BFEEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1F4754B-0B4F-944D-9EF1-3D7FA7600C88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16800" yWindow="0" windowWidth="16800" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
     <t>iPhone 14 Pro max</t>
   </si>
   <si>
-    <t>iPhone 15 Pro max Grey Titanium, iPhone 15 Pro max Grey Titanium., iPhone 15 Pro max Grey Titanium</t>
+    <t>iPhone 15 Pro max Grey Titanium 256GB + Apple pencil a case</t>
   </si>
 </sst>
 </file>
@@ -406,8 +406,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="181" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="181" workbookViewId="0">
+      <selection activeCell="A48" sqref="A48:C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -431,7 +431,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>5</v>
+        <v>3040</v>
       </c>
       <c r="C2">
         <v>10000</v>
@@ -442,10 +442,10 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>5</v>
+        <v>3040</v>
       </c>
       <c r="C3">
-        <v>16000</v>
+        <v>298302</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -453,7 +453,7 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>20</v>
+        <v>3040</v>
       </c>
       <c r="C4">
         <v>28000</v>
@@ -464,7 +464,7 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>10</v>
+        <v>3040</v>
       </c>
       <c r="C5">
         <v>35000</v>
